--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3462.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3462.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.456705126288506</v>
+        <v>1.083773612976074</v>
       </c>
       <c r="B1">
-        <v>1.612301296832698</v>
+        <v>1.809671759605408</v>
       </c>
       <c r="C1">
-        <v>1.884634913897941</v>
+        <v>5.327514171600342</v>
       </c>
       <c r="D1">
-        <v>3.139871621518958</v>
+        <v>0.7834926843643188</v>
       </c>
       <c r="E1">
-        <v>8.444315528725577</v>
+        <v>0.555210292339325</v>
       </c>
     </row>
   </sheetData>
